--- a/biology/Botanique/Parc_de_Babelsberg/Parc_de_Babelsberg.xlsx
+++ b/biology/Botanique/Parc_de_Babelsberg/Parc_de_Babelsberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de Babelsberg (en allemand : Park Babelsberg) est un parc de  124 hectares situé au nord-est de la ville de Potsdam au bord de la Havel. Il a été créé sur un terrain vallonné en pente vers la rivière par le paysagiste Peter Joseph Lenné et, après lui, par le prince Hermann von Pückler-Muskau, sur ordre du prince Guillaume de Prusse (le futur empereur Guillaume Ier) et de son épouse, Augusta. 
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la construction du château de Glienicke pour son frère Charles de Prusse, suivie par l'édification du palais de Charlottenhof pour son frère Frédéric-Guillaume IV, le prince Guillaume s'est également efforcé de faire construire sa propre résidence. Il a reçu le soutien de cette idée de Peter Joseph Lenné, qui souhaitait transformer la zone autour de Potsdam en une synthèse artistique et a vu l'opportunité d'aménager l'extrémité orientale de la zone, près du village de Nowawes, en un parc et de l'intégrer dans le plan d'ensemble. 
 En 1833, le prince Guillaume gagne l'approbation de son père le roi Frédéric-Guillaume III pour aménager un parc généreux. La même année, l'architecte Karl Friedrich Schinkel reçut la commande de la construction du château de Babelsberg. Néanmoins, au vu des difficultés financières, les travaux progressent lentement. En raison des divergences d'avis qui subsistaient entre Lenné et la princesse Augusta, la direction a été assumée par le prince Hermann von Pückler-Muskau, le créateur du parc de Muskau en Haute-Lusace, en 1843. Pückler a retravaillé les avant-projets de son prédécesseur : il conçoit de nouvelles promenades et terrasses, un escalier de jardin, ainsi que des bosquets d'arbres supplémentaires.
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
